--- a/County_Level_Cross_Validation_Parental_Trust.xlsx
+++ b/County_Level_Cross_Validation_Parental_Trust.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/263e6c96784ab765/Desktop/US_Childhood_Vaccination/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_1D0370C60087077754ACB7C8E2AA775CC0936631" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFF23D1D-D778-4AA7-9DE5-C9306FE158D2}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_1D0370C60087077754ACB7C8E2AA775CC0936631" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F21D0DA6-34CC-471F-8F81-58F112F9C71E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicator" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Coefficients_VAR" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Coefficients_MMR!$A$1:$K$192</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Indicator!$A$1:$AB$192</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -292,6 +293,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -613,7 +618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
@@ -17166,7 +17171,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K192"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:K1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -23904,6 +23911,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K192" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
